--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value551.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value551.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.567489663809985</v>
+        <v>1.473279237747192</v>
       </c>
       <c r="B1">
-        <v>0.6630204177338324</v>
+        <v>1.640435099601746</v>
       </c>
       <c r="C1">
-        <v>0.8540278089585955</v>
+        <v>1.698710441589355</v>
       </c>
       <c r="D1">
-        <v>1.894883109408355</v>
+        <v>2.161072492599487</v>
       </c>
       <c r="E1">
-        <v>3.896056221750054</v>
+        <v>3.369428157806396</v>
       </c>
     </row>
   </sheetData>
